--- a/tables_and_figures/output/candidate_vs_party_specificity.xlsx
+++ b/tables_and_figures/output/candidate_vs_party_specificity.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.662568676260143</v>
+        <v>8.670804005523726</v>
       </c>
     </row>
     <row r="3">
